--- a/example_hrd.xlsx
+++ b/example_hrd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1086">
   <si>
     <t xml:space="preserve">E-Nummer</t>
   </si>
@@ -3248,12 +3248,6 @@
     <t xml:space="preserve">20x oder 40x bei mehreren scanns mit Strichpunkt getrennt</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/one/results/5343386cbac240d78fb92497168ad956', '/test/two/results/0234457da14c41148e1151e696e9dd93', '/test/three/results/115cfb86f4f241e998cb0cfc5a6240c3']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_2S_1_9-6-2021_12-34-36/results/49bae05205d04323a1647507353354f2', '/test/two/results/640ca138e5f9482d991ade1755b07ed3', '/test/three/results/057fefd3bb4a4a14aa31f4b2e64f51d1']</t>
-  </si>
-  <si>
     <t xml:space="preserve">/test/one/data/one.svs;/test/two/data/two.svs;/test/three/data/three.svs</t>
   </si>
   <si>
@@ -3263,307 +3257,25 @@
     <t xml:space="preserve">HRD negativ:</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/four/results/a0a81f5b8144435eaea2e5b3977b4f33', '/test/five/results/8bf211b7ed3a4885843c23cd470c2549']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/four/results/ada8c237f0844150ab5d3a864c9502e8', '/test/five/results/201a8b54731349a4a8dd9240ece613e4']</t>
-  </si>
-  <si>
     <t xml:space="preserve">/test/four/data/four.svs;/test/five/data/five.svs</t>
   </si>
   <si>
     <t xml:space="preserve">HRD positiv:</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/six/results/09a789778e8248689950056a33e34143', '/test/seven/results/72a2ff86cf944300ac1cacddd4d7844e', '/test/eight/results/3c12d5d9c0db47efb686e99b55201042']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/six/results/f31e124172354db2a4e96e9530098ef2', '/test/seven/results/9d1d4dfa08674af0857bc28c1fe29ca4', '/test/eight/results/db34db4dcd3c41bc9e53ace9436e3a61']</t>
-  </si>
-  <si>
     <t xml:space="preserve">/test/six/data/six.svs;/test/seven/data/seven.svs;/test/eight/data/eight.svs</t>
   </si>
   <si>
     <t xml:space="preserve">HRD inkonklusiv:</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/one/results/415b7328cebd4a7394feeb9d763b203a', '/test/two/results/c32087c52a63403ea47439836e973df6', '/test/three/results/f185128a75d944279e2c004fa4b4e904']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/6684a45b33024b3fae19a49a1cc2efc1', '/test/two/results/7ff5443b18cb4ff5bef69a2144915929', '/test/three/results/8220856993264ea781c1d44bd196a6c4']</t>
-  </si>
-  <si>
     <t xml:space="preserve">keine HRD Analyse gemacht:</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/four/results/6134a1e9e40544b791bda27083ea20a6', '/test/five/results/9b1842c1e473465e9343a94450000c62']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/four/results/3d8d7c2a67d94eef83693e1a013783fc', '/test/five/results/1b067c42e87b4d54a538ad2df85bbc3f']</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRCA1 oder BRCA2 positiv:</t>
   </si>
   <si>
-    <t xml:space="preserve">['/test/six/results/d34ac6b90f7f49bab700c2b358bd1320', '/test/seven/results/6e265531c023411f88205a4fd6d79ee5', '/test/eight/results/185e0a72ad8c42d1ba57d9d388c898bb']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/six/results/c4aa480927864b92b3d3bd07e1afd753', '/test/seven/results/2bc79854d5e044999b3429419199cede', '/test/eight/results/7eab0f7c43d1433fbd50a5cdf40665ed']</t>
-  </si>
-  <si>
     <t xml:space="preserve">nur partielle Analyse:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/1fef92aebe8a420a8b2f97757701d754', '/test/two/results/e485bd862aeb423f91620eee46efbb0a', '/test/three/results/ad226ce72f154348b5df56d90501862c']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/89f4c846b5d94957aa17d682a5bdb60a', '/test/two/results/7270488003b64f05add35f4d5d44c440', '/test/three/results/3d3ba27fcfa34cbeb4dbaa8b7bc486c3']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/191829d3931849c1887f9e10122f727b', '/test/two/results/7f8be50e8f4d4d7db14f26639815f4c5', '/test/three/results/a452045f696746b5ae5fb9f3a485140e']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/1dfa9ab8fcc540d69cd9e01c7d285524', '/test/two/results/f68520b91fc04e9085addb7ac2d51e91', '/test/three/results/082f6b12d7724f35971e3121369079a7']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/28b23f59cb5847d199de8d6d257668ca', '/test/two/results/d5a288c717244564ad9a902d8ea3059a', '/test/three/results/3e5a0c33de4b4ae68f8e0914e8ee90ea']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_3S_1_20190127155013940/results/79f1d4dc53af493eab3f56d57b900837', '/test/two/results/1719b4a3d9824e1a8f09cd35c828ac78', '/test/three/results/d716e97c917d4eaba0d1ee47d0e6f866']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/58ad1ed6154e4b2db9a86633a092d0eb', '/test/two/results/5c84c114909842499608728684ed7089', '/test/three/results/fee29d40cb13456ab8c82c51532def9f']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/4405fd743c094118841807f6a9f29767', '/test/two/results/410709c9958b4fb1b369dbd03320cb28', '/test/three/results/8166f659095a4b69b3a99d32fc1c877b']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/62f94bc81e3844beb041006cdcf0013b', '/test/two/results/63a49d5fab00490bb3d67acf6a27023d', '/test/three/results/7678fb252a0347dfb9a2a183e2c7546e']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/4b50f2154b1e44c49afa280803a2005d', '/test/two/results/fb4acc52d2da420c945f8472576bff20', '/test/three/results/2224bd533cc846b2805b2cbf63660dd2']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/bc70bb3d34474126a2200d625ae63a9f', '/test/two/results/a22c5a701f31415599a0c843cea7ff37', '/test/three/results/b1a22185201d4d88b795871cb190a707']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/0f35b9cf58524a0ebd4e4a2e730dd219', '/test/two/results/9a026a2cbe5f4a6292dc512653428224', '/test/three/results/89003a412141486094dd8038efbf470d']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/7093d392578c4b8dbb951045cd6357f1', '/test/two/results/2a9e19f322124ad3b03cd292dc7ceddd', '/test/three/results/7aea9eadc2be42388a517217cb7fda8c']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/9ed2d8e8fe80415fab4ed06d585351c5', '/test/two/results/359e09daef8242ddb056998c402616eb', '/test/three/results/ff58f5d21c164731b7eecfd4261dddf8']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/c56d92db2f6b42ab84a34a45517746ad', '/test/two/results/5a507ec9aef447de8a044c93dfb24599', '/test/three/results/64f52b35ac1f49eaa1e32a1ceb4f5ff7']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/90b3f3f10e7b4ea78047cb2ae22392b0', '/test/two/results/fc95968cbd6b482abcdb2361a6ae8cf6', '/test/three/results/74f526e690a148e29230c455ee63f68e']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/17db69fe3ab04321be305b1b7e16e15d', '/test/two/results/e49cf0a4e4f342a481d508acb7ee4d8b', '/test/three/results/18487290857240499e921159899ddf07']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_6S_1_20190127162758993/results/8aa72c93c807488c818ca61d1ecf7244', '/test/two/results/e0e299a9d6aa42d89e6e08f5ef213785', '/test/three/results/f90512bcb333483a94a7ced95c29b551']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/d86b0b85c70d4d76b9a53ea065166873', '/test/two/results/b920fe563bdb45c18c0d007aef6b5294', '/test/three/results/04d0ca4298ab470386dae393d2200d25']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/106c645e869f4c46a506b9d1b5cb6db9', '/test/two/results/b8bac5937ec543eeba8ea79c7fdc842a', '/test/three/results/352dda3a43c74b2b81d09d1ef034fd56']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/c339fa90d9a44966a424fd6e07551404', '/test/two/results/d2d7c08aa5044b679dbed8ab6017e0fe', '/test/three/results/bb2f716ef4a94a57ae35ef4d450a1ad0']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/f2c6ca3a745f4abaaca6dc19f3bc0491', '/test/two/results/f44d48fb55054103912b1a0e6e9c9534', '/test/three/results/3eaa891c144946c299b7d57ada0fce35']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/6e5e9eb3495c4f159ee539b9ab09c836', '/test/two/results/e480eda1a97b464db8ad55d195b4fb6e', '/test/three/results/cfa494a2ee0647baa5cf125469971640']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/631df245f47440fc9a67a5cd28a02e0d', '/test/two/results/bd02aafeec8a44ca8ad6132123b0e76f', '/test/three/results/11060d0a009f4aa9a5fc6622c52c7195']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/5a49e528334548a58f5dde195d15a213', '/test/two/results/6c7cd6cf897a452e847671d4352a9299', '/test/three/results/35e0710adc044ce2a1189d8562b7b552']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/0781e1737dca43449e029f8c33dd7265', '/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_7S_1_20190127164308775/results/fd4e1340344c4ac691a49aff5c495c55', '/test/three/results/beaa08f6a9664f2bbd64959217173076']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/c7f1b3edf7274082b4c819de5f8fc2b7', '/test/two/results/2aa9826722b844c8a7563eb29a9ec655', '/test/three/results/126af773b34d42df809100ed7e7f5b35']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/5cdf84094cfc48a1bc1982e46ea11abb', '/test/two/results/8f72ce6b5e074668969a25be2e22c44f', '/test/three/results/9900c0722efa41c5a35bf4e5639010de']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/c17817a111ec43d2a10b64c4c3f34784', '/test/two/results/e67ffec64d5040bdbba10aa101f94860', '/test/three/results/d405894746cb4a338a3569248ed61ebe']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/4b7ed85c6f2442ff8c26bbedc43d1dc8', '/test/two/results/c0b23874103842bcb785cebea8711d6b', '/test/three/results/074bb89c56c14205b2cf28c0fd4dbbf9']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/c06011479bd347f88cf391b2c7c306b5', '/test/two/results/50f7c276c7d34dafb6de3d28fc188620', '/test/three/results/56ead236c1e142fdb0a9d8e3f886d3ae']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/8ed6b55a10d74cc7b9e11ac3a5615497', '/test/two/results/4bbdba61c9cc41218ab33d27c6c50b1c', '/test/three/results/a21f7560868e46f3b49c74d5ffb21fcf']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/3c4af9fe0f6f44a397e798f541af6397', '/test/two/results/40143ef6409f4cb79da61e523083169d', '/test/three/results/dffc71d167bf4b0685dd19597fa2e863']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/503377a85b374f8483cac8ca29fc9d78', '/test/two/results/bed92a2c47fd46b08740779679108d27', '/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_8S_1_20190127165636616/results/aee81db4a7e542cd91e067a7c560a203']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/74fc56dc044e4c8d93d3f1a6ebfd1fe0', '/test/two/results/74bea0b6e24d4074b333d7a69e7c1d41', '/test/three/results/04a1d1bf505149c3b6df5b25240ab396']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/81f609d6bed844d391505748e8756d60', '/test/two/results/d85cbd570a12499cb4faf0be63399eae', '/test/three/results/0794853aab7543fda2d327c64cf20997']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/700358e3720b40f0a13c9d422e7f6653', '/test/two/results/fff6cb082a6549b5a03a0f551857148a', '/test/three/results/b1a60670a85544ec8e1b1574da66aa5b']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/94fda6110d3046e2b3ad7ff6d921761b', '/test/two/results/d7180a133f60429f9e0298a0465378d6', '/test/three/results/e663944a633e47c1b431ec17cc3266d2']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/3985a611867540fe82ca1cd2e511e39b', '/test/two/results/fb7004f88eac4285babceed3a8948eb8', '/test/three/results/723d6f60ef8543ad9ba08842826a9dd9']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/1156a2237db8429ca2bebfd2020a476b', '/test/two/results/e13b7aded2ca4a81842734d12b96f3fb', '/test/three/results/5c2cba9f256745868e1a44d54febc5df']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/4eb8f943d5104a12868b7790e80539e5', '/test/two/results/1a6c50cd3a6e4f97a8c3abcf498d71de', '/test/three/results/af30f1cafd9748b4928536ff10edc0e1']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/cad5f9edc3c44aa3a6193ed349408dd9', '/test/two/results/a63987df3a8e45c7a910083f0d3e440b', '/test/three/results/30f6f82a89a0437796ac035034759049']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/d24b9935be5440cebb993320fa0c3a87', '/test/two/results/6f6232371cfc42c5a7a53746e8d4d3c3', '/test/three/results/f3ee9fa5455343dd965eb534dc8ab276']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/9ff60f9bac8c4ba7a5ab135cca545bf3', '/test/two/results/a348ccacd0f04e7b87dae36bf694f836', '/test/three/results/d5ea758e4a764d7180390476c8a7c23e']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/f1aa4749e4054803bb71d0cf0afaf100', '/test/two/results/03c0d04db18d4eb2ac4bdaaee174161e', '/test/three/results/c209423c10ab4a109665ef88f23541f7']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/0f243586b819447aa5b9e51413678e4d', '/test/two/results/a71f84ed77124c71a055638497afacd0', '/test/three/results/fd3c20128e55463587fb6ee9c5a899ce']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/2ca9e7a64efd4920b554aeeb8670377b', '/test/two/results/cd5ec76be4164d719f757c36499bc15e', '/test/three/results/35df831d96ad45e89796e71672c0419a']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/aad19f15efd64029bf798779786054a0', '/test/two/results/69b199a4e7c9449daf138740a67ddf4f', '/test/three/results/061ef1a07b2d478cb2b72a6d3f149880']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/529f7517bc004e0287646d8b740a5d4d', '/test/two/results/58d7926b4e56437992d46927ad0d55a1', '/test/three/results/5c13a4fa1e944a438761408fae5facec']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/48f5944f27c54b5dbb9a09b6b2abe1e7', '/test/two/results/7b1e8ac6baeb40119f4a7d91c8514511', '/test/three/results/9cfb3ea25b5843b9bef5127082a70e16']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/43bc2421a2d243e788a465dba5a15087', '/test/two/results/fc20d6de3fe643ffa062a9ff67965808', '/test/three/results/4fd39207d02b42ce9897ad123e4cbcb3']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/1c7e18a0b98d44fbb1faab9577e6262c', '/home/simon/philipp/HRD-Subset-I/DigitalSlide_A1M_9S_1_20190127165942384/results/b632484b59f342a68ff7c813b5b7cdf1', '/test/three/results/320b2f849e614cc385f8767ffc0282b4']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/77718d23b5fa4e07b7051384b78fd925', '/test/two/results/6dbedfae15864c3a80547e0a559fcb19', '/media/user/easystore/DigitalSlide_A1M_9S_1_20190127165942384/results/b632484b59f342a68ff7c813b5b7cdf1']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/8bf0122315db4a17a762cb44817c02b5', '/test/two/results/f58d366198194ae8be4e20bc816b4574', '/test/three/results/76a470b4ce5e4299845d0e7acc37e20a']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/f264d08b6fe2446ab45c582a098a5984', '/test/two/results/220be608ce0a4fd89ad41436db237fc2', '/test/three/results/aaffb028fc404919acc005137bd34078']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/0f87c7b1bbde4a05861758507ab6c3de', '/media/user/easystore/DigitalSlide_A1M_9S_1_20190127165942384/results/b632484b59f342a68ff7c813b5b7cdf1']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/a3f80bf76e64464a981edd23be5385a0', '/test/two/results/bf39ae25f911410fa03f75c5de06d44e', '/test/three/results/fb38734cc5d6472aabad1482e619f93b']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/563709cc28dd41f4b0bf487a3313e3aa', '/test/two/results/46a43af0ec68477fb632fbfa08e90b43', '/test/three/results/de39de0e6c994f3ba5afc19881c3b149']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/eca3ad24656c4d38bbd88993fd8aaac2', '/test/two/results/8752bef76bf54359a59493ea8fdcd7a9', '/test/three/results/e209fad28aca4b5aaaa9008ea386bbb2']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/2e3da680f82e4bc38b75583ce12505d4', '/test/two/results/c0de2715c0cc44259ec69ded71e2a4df', '/test/three/results/27b09ed537b343298715e1968a05931f']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/bcacb6acc6524f7280c08caa857ec5c2', '/test/two/results/720840d435164d91bf2827d358c93661', '/test/three/results/fb61f8534e634f8f9e6dc6ff208eb07a']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/ddecd5b733b54e849e910e3830b75e15', '/test/two/results/eaea12c98fc34de98f89ae96dff1e77e', '/test/three/results/ed61c831f38744e4a640a16c72d4b764']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/8bd3ae57aef9416a84491031a785f205', '/test/two/results/e12139d950cb4244bdb4ed58bacddedd', '/test/three/results/01967034144443cf82a7be9099eaa4a4']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/5d79c82d2fbc456eb7d048b2474869b0', '/test/two/results/532dc58301084595adac2a085b3f3b96', '/test/three/results/5f9ac86aff674b55a2c2fd57465cc94d']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/0b3a5828076b47f69b5c7d5590c4f18a', '/test/two/results/e581fb808f164c8d8824df71aefbb200', '/test/three/results/e009753b184644178c1b620eb3f45003']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/7b9535035d3b44cdbd03713293876462', '/test/two/results/65e183da50104d649eb86ddfe7a598e0', '/test/three/results/f6de769ff1534e8a8d8c3448545677f4']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/2d4cbd6d222f4e948a80e2a0f419a415', '/test/two/results/38f3c4dd0e674a69beb7d812c74c2ea9', '/test/three/results/d7035557f0354754a6e34ffb5a9a69ae']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/4dea5a40bad845c7a4b608ab28a4490a', '/test/two/results/d281c7e1960a42df8fd4a5ad3867bd29', '/test/three/results/1b287bf675f44d0a95053200294f69ed']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/96d27ef63b3c43cfabf4eaeaa153c377', '/test/two/results/0c5aa86617034b6084937d11e99191be', '/test/three/results/a4b7137195754ef69cdda99e0e2a6f33']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/041a33b95b2240c897354d6fe09ccb20', '/test/two/results/edaf0e2a0e494058a98bcd27593fe428', '/test/three/results/1af41dc22cc54d4da8a4c54149268f9b']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/5acc6948c3784d62af950a1c08e133b3', '/test/two/results/4c4b0e9ea6664c4c85f56c038d820de4', '/test/three/results/fbc93a0a17ad4419a2cb9dd974234459']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/fc788295e6c443b080c86cb46e7d9297', '/test/two/results/566c05ef2192405a89d6f2bc99908da2', '/test/three/results/6cbd76f8943140d895cc985a178edd0e']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/2352fbce1e484ef5a446be41f3716c2a', '/test/two/results/9fadb3bf64aa43db932d463670f64050', '/test/three/results/75f071e18f784158834110701e503698']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/e38282ed938f4aacbd120783cdd230d4', '/test/two/results/6e1f11fd77794b468cb9e541778a3f4a', '/test/three/results/99192d7c7cd9422db888d11fdcd4c8e8']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/7c0df522a274464193b4a7de67a22ec6', '/test/two/results/dd9a3c82faeb40ab9fd14a901d1d4f23', '/test/three/results/0b8236e29c1f460f84b6f77e50ae7ad4']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/56b320a5dd6b48ec85145d8245e7399d', '/test/two/results/1b110edb4b13446b8e48c04c1dd25f71', '/test/three/results/8f6fdcd794fb4e7e98ad08ec6bd4a8eb']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/291c86ec1efc43a1b7229dbc2c35e1d0', '/test/two/results/665fec20069f42c4974c3dbb50962d94', '/test/three/results/5102b58cba2d49df87ea1c7d367bbd50']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/6fd4846069c44f9eac6c556df42cdda5', '/test/two/results/052a4bea252342b4b2b3f1dace8d0a32', '/test/three/results/c0fd3220494b45189b4c19075a326939']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/590648afc6404ca3a59474fec4a322d4', '/test/two/results/12be69b364ab4f578412437c6a2fee43', '/test/three/results/02d4e7a23dbe4934817c34c38e801fe5']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/38b93707730f417bb632e532291a6400', '/test/two/results/2bd0edfc3a924263b9be5654b5c579dc', '/test/three/results/bb180dd9b95743d7b3be808c5762ca30']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/f5b9d2ad2610462289007b7dd5c796c3', '/test/two/results/a59cc4558f6148a8b9852ba1a486aa7b', '/test/three/results/f1816e61d9bb485d99a0e6c0851a9d79']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/320bc0df28f541e18b0e0284ffacd49c', '/test/two/results/4a530874e4144181829c71a1d69718ec', '/test/three/results/0b021337e5ba44b4952dc9b09a8acb09']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/test/one/results/rshetsheasthtaeh', '/test/two/results/fa28f106e7c64718933c8c17c5cdbd14', '/test/three/results/8e05391d39a8413f8fb6a8f68e443df6']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['/media/user/easystore/DigitalSlide_A1M_2S_1_9-6-2021_12-34-36/results/49bae05205d04323a1647507353354f2', '/test/two/results/25aacc4b8a0640d0aca7d473686da472', '/test/three/results/e9d2fb2c4c784fc3b93953467e0cc53e']</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -3573,9 +3285,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -3710,7 +3423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3757,6 +3470,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3841,10 +3558,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J1" activeCellId="1" sqref="AC49 J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.7"/>
@@ -32963,11 +32680,11 @@
   </sheetPr>
   <dimension ref="A1:AE481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC49" activeCellId="0" sqref="AC49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="145.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.25"/>
@@ -33089,11 +32806,13 @@
       <c r="D2" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="AD2" s="0" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>1076</v>
+      <c r="AB2" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33101,40 +32820,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Z3" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>1081</v>
+      <c r="AB3" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33142,7 +32863,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -33163,16 +32884,18 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>1085</v>
+        <v>1079</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33180,7 +32903,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -33201,13 +32924,15 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>1089</v>
+        <v>1081</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33215,7 +32940,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -33236,16 +32961,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>1092</v>
+        <v>1082</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33253,7 +32980,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -33274,13 +33001,15 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>1095</v>
+        <v>1083</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33288,7 +33017,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -33309,13 +33038,15 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>1098</v>
+        <v>1084</v>
+      </c>
+      <c r="AB8" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33323,7 +33054,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -33343,11 +33074,13 @@
       <c r="K9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="0" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>1100</v>
+      <c r="AB9" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33355,7 +33088,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -33375,11 +33108,13 @@
       <c r="K10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" s="0" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>1102</v>
+      <c r="AB10" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33387,7 +33122,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -33407,11 +33142,13 @@
       <c r="K11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" s="0" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AE11" s="0" t="s">
-        <v>1104</v>
+      <c r="AB11" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33419,7 +33156,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -33440,13 +33177,15 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD12" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AE12" s="0" t="s">
-        <v>1106</v>
+        <v>1076</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33454,7 +33193,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -33475,13 +33214,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD13" s="0" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>1108</v>
+        <v>1076</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33489,7 +33230,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -33509,11 +33250,13 @@
       <c r="K14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>1110</v>
+      <c r="AB14" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33521,7 +33264,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -33541,11 +33284,13 @@
       <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AE15" s="0" t="s">
-        <v>1112</v>
+      <c r="AB15" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33553,7 +33298,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -33574,13 +33319,15 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD16" s="0" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AE16" s="0" t="s">
-        <v>1114</v>
+        <v>1076</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33588,7 +33335,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -33612,13 +33359,15 @@
         <v>1</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD17" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AE17" s="0" t="s">
-        <v>1116</v>
+        <v>1076</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33626,7 +33375,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
@@ -33646,11 +33395,13 @@
       <c r="K18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AE18" s="0" t="s">
-        <v>1118</v>
+      <c r="AB18" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33658,7 +33409,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -33678,11 +33429,13 @@
       <c r="K19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>1120</v>
+      <c r="AB19" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33690,7 +33443,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
@@ -33710,11 +33463,13 @@
       <c r="K20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>1122</v>
+      <c r="AB20" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33722,7 +33477,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -33748,11 +33503,13 @@
       <c r="U21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD21" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AE21" s="0" t="s">
-        <v>1124</v>
+      <c r="AB21" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33760,7 +33517,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -33781,13 +33538,15 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD22" s="0" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AE22" s="0" t="s">
-        <v>1126</v>
+        <v>1076</v>
+      </c>
+      <c r="AB22" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33795,7 +33554,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -33815,11 +33574,13 @@
       <c r="K23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="0" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AE23" s="0" t="s">
-        <v>1128</v>
+      <c r="AB23" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33827,7 +33588,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -33848,13 +33609,15 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AE24" s="0" t="s">
-        <v>1130</v>
+        <v>1076</v>
+      </c>
+      <c r="AB24" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33862,7 +33625,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
@@ -33883,13 +33646,15 @@
         <v>0</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD25" s="0" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AE25" s="0" t="s">
-        <v>1132</v>
+        <v>1076</v>
+      </c>
+      <c r="AB25" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33897,7 +33662,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
@@ -33918,13 +33683,15 @@
         <v>0</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD26" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AE26" s="0" t="s">
-        <v>1134</v>
+        <v>1076</v>
+      </c>
+      <c r="AB26" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33932,7 +33699,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
@@ -33953,13 +33720,15 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD27" s="0" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AE27" s="0" t="s">
-        <v>1136</v>
+        <v>1076</v>
+      </c>
+      <c r="AB27" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC27" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33967,7 +33736,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -33987,11 +33756,13 @@
       <c r="K28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" s="0" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AE28" s="0" t="s">
-        <v>1138</v>
+      <c r="AB28" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33999,7 +33770,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -34019,11 +33790,13 @@
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AE29" s="0" t="s">
-        <v>1140</v>
+      <c r="AB29" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,7 +33804,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
@@ -34052,13 +33825,15 @@
         <v>0</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD30" s="0" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AE30" s="0" t="s">
-        <v>1142</v>
+        <v>1076</v>
+      </c>
+      <c r="AB30" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34066,7 +33841,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
@@ -34086,11 +33861,13 @@
       <c r="K31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AE31" s="0" t="s">
-        <v>1144</v>
+      <c r="AB31" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34098,7 +33875,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
@@ -34119,13 +33896,15 @@
         <v>0</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD32" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AE32" s="0" t="s">
-        <v>1146</v>
+        <v>1076</v>
+      </c>
+      <c r="AB32" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34133,7 +33912,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -34153,11 +33932,13 @@
       <c r="K33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD33" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AE33" s="0" t="s">
-        <v>1148</v>
+      <c r="AB33" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC33" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34165,7 +33946,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -34185,11 +33966,13 @@
       <c r="K34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD34" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AE34" s="0" t="s">
-        <v>1150</v>
+      <c r="AB34" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34197,7 +33980,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -34217,11 +34000,13 @@
       <c r="K35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD35" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AE35" s="0" t="s">
-        <v>1152</v>
+      <c r="AB35" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC35" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34229,7 +34014,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -34249,11 +34034,13 @@
       <c r="K36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AE36" s="0" t="s">
-        <v>1154</v>
+      <c r="AB36" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34261,7 +34048,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -34281,11 +34068,13 @@
       <c r="K37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AE37" s="0" t="s">
-        <v>1156</v>
+      <c r="AB37" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34293,7 +34082,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
@@ -34313,11 +34102,13 @@
       <c r="K38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AE38" s="0" t="s">
-        <v>1158</v>
+      <c r="AB38" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC38" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34325,7 +34116,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
@@ -34346,13 +34137,15 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD39" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AE39" s="0" t="s">
-        <v>1160</v>
+        <v>1076</v>
+      </c>
+      <c r="AB39" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34360,7 +34153,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0</v>
@@ -34380,11 +34173,13 @@
       <c r="K40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" s="0" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AE40" s="0" t="s">
-        <v>1162</v>
+      <c r="AB40" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34392,7 +34187,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>0</v>
@@ -34412,11 +34207,13 @@
       <c r="K41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE41" s="0" t="s">
-        <v>1164</v>
+      <c r="AB41" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC41" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34424,7 +34221,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
@@ -34444,11 +34241,13 @@
       <c r="K42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD42" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AE42" s="0" t="s">
-        <v>1166</v>
+      <c r="AB42" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34456,7 +34255,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
@@ -34476,11 +34275,13 @@
       <c r="K43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AE43" s="0" t="s">
-        <v>1168</v>
+      <c r="AB43" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34488,7 +34289,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
@@ -34508,11 +34309,13 @@
       <c r="K44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AE44" s="0" t="s">
-        <v>1170</v>
+      <c r="AB44" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34520,7 +34323,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
@@ -34541,13 +34344,15 @@
         <v>0</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD45" s="0" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AE45" s="0" t="s">
-        <v>1172</v>
+        <v>1076</v>
+      </c>
+      <c r="AB45" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34555,7 +34360,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
@@ -34575,11 +34380,13 @@
       <c r="K46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD46" s="0" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AE46" s="0" t="s">
-        <v>1174</v>
+      <c r="AB46" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34587,7 +34394,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
@@ -34608,13 +34415,15 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD47" s="0" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AE47" s="0" t="s">
-        <v>1176</v>
+        <v>1076</v>
+      </c>
+      <c r="AB47" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC47" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34622,7 +34431,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
@@ -34643,13 +34452,15 @@
         <v>0</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AD48" s="0" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AE48" s="0" t="s">
-        <v>1178</v>
+        <v>1076</v>
+      </c>
+      <c r="AB48" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC48" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34657,7 +34468,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
@@ -34677,11 +34488,13 @@
       <c r="K49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AD49" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AE49" s="0" t="s">
-        <v>1180</v>
+      <c r="AB49" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AC49" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34689,7 +34502,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
@@ -34707,6 +34520,14 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -34779,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="X53" s="0" t="n">
         <v>1</v>
@@ -34877,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34926,7 +34747,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34952,7 +34773,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34978,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35004,7 +34825,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35099,7 +34920,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35125,10 +34946,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35269,10 +35090,10 @@
         <v>0</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V73" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35321,7 +35142,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35347,7 +35168,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35373,7 +35194,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35583,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35632,7 +35453,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35704,7 +35525,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35799,7 +35620,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35874,7 +35695,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35992,7 +35813,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36090,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36277,7 +36098,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36303,10 +36124,10 @@
         <v>0</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y116" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36447,7 +36268,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36565,7 +36386,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36614,7 +36435,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36663,7 +36484,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36758,7 +36579,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36925,7 +36746,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36974,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="T144" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37115,7 +36936,7 @@
         <v>0</v>
       </c>
       <c r="V150" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37167,10 +36988,10 @@
         <v>0</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V152" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37265,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37337,7 +37158,7 @@
         <v>0</v>
       </c>
       <c r="T159" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37363,7 +37184,7 @@
         <v>0</v>
       </c>
       <c r="S160" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37389,7 +37210,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37438,7 +37259,7 @@
         <v>0</v>
       </c>
       <c r="V163" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37513,7 +37334,7 @@
         <v>1</v>
       </c>
       <c r="Y166" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37539,10 +37360,10 @@
         <v>0</v>
       </c>
       <c r="O167" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V167" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37683,7 +37504,7 @@
         <v>0</v>
       </c>
       <c r="W173" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37709,7 +37530,7 @@
         <v>0</v>
       </c>
       <c r="N174" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37784,7 +37605,7 @@
         <v>1</v>
       </c>
       <c r="V177" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37928,10 +37749,10 @@
         <v>1</v>
       </c>
       <c r="S183" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V183" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37977,10 +37798,10 @@
         <v>0</v>
       </c>
       <c r="V185" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y185" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38043,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="Y188" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38066,10 +37887,10 @@
         <v>0</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q189" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38195,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38378,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="Q204" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38481,7 +38302,7 @@
         <v>0</v>
       </c>
       <c r="X209" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38504,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="V210" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38547,7 +38368,7 @@
         <v>0</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38573,7 +38394,7 @@
         <v>1</v>
       </c>
       <c r="S213" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38705,7 +38526,7 @@
         <v>1</v>
       </c>
       <c r="X219" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38728,7 +38549,7 @@
         <v>0</v>
       </c>
       <c r="S220" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38751,7 +38572,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38774,7 +38595,7 @@
         <v>0</v>
       </c>
       <c r="T222" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38820,7 +38641,7 @@
         <v>1</v>
       </c>
       <c r="Y224" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38843,7 +38664,7 @@
         <v>0</v>
       </c>
       <c r="O225" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38906,7 +38727,7 @@
         <v>0</v>
       </c>
       <c r="M228" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38995,7 +38816,7 @@
         <v>0</v>
       </c>
       <c r="V232" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39044,10 +38865,10 @@
         <v>0</v>
       </c>
       <c r="L234" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="X234" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39093,7 +38914,7 @@
         <v>0</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39116,7 +38937,7 @@
         <v>0</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39139,7 +38960,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39162,7 +38983,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39185,7 +39006,7 @@
         <v>0</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39205,7 +39026,7 @@
         <v>0</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39225,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K242" s="0" t="n">
         <v>0</v>
@@ -39248,13 +39069,13 @@
         <v>0</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K243" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V243" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39274,7 +39095,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K244" s="0" t="n">
         <v>0</v>
@@ -39294,7 +39115,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K245" s="0" t="n">
         <v>0</v>
@@ -39320,22 +39141,22 @@
         <v>0</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K246" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L246" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O246" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="P246" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="W246" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39355,7 +39176,7 @@
         <v>0</v>
       </c>
       <c r="Q247" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="T247" s="0" t="n">
         <v>1</v>
@@ -39461,7 +39282,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39484,7 +39305,7 @@
         <v>1</v>
       </c>
       <c r="X253" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39530,7 +39351,7 @@
         <v>0</v>
       </c>
       <c r="N255" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39625,7 +39446,7 @@
         <v>0</v>
       </c>
       <c r="V259" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39867,10 +39688,10 @@
         <v>0</v>
       </c>
       <c r="L269" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q269" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39919,10 +39740,10 @@
         <v>0</v>
       </c>
       <c r="V271" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="X271" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39948,7 +39769,7 @@
         <v>0</v>
       </c>
       <c r="N272" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39997,7 +39818,7 @@
         <v>0</v>
       </c>
       <c r="V274" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40118,10 +39939,10 @@
         <v>0</v>
       </c>
       <c r="M279" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="T279" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40288,16 +40109,16 @@
         <v>0</v>
       </c>
       <c r="Q286" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="S286" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="U286" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V286" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="X286" s="0" t="n">
         <v>1</v>
@@ -40326,7 +40147,7 @@
         <v>0</v>
       </c>
       <c r="Y287" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40375,7 +40196,7 @@
         <v>0</v>
       </c>
       <c r="L289" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40401,7 +40222,7 @@
         <v>0</v>
       </c>
       <c r="U290" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40427,7 +40248,7 @@
         <v>0</v>
       </c>
       <c r="V291" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40522,7 +40343,7 @@
         <v>0</v>
       </c>
       <c r="V295" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40643,7 +40464,7 @@
         <v>0</v>
       </c>
       <c r="L300" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40715,13 +40536,13 @@
         <v>0</v>
       </c>
       <c r="L303" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="T303" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y303" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40796,7 +40617,7 @@
         <v>1</v>
       </c>
       <c r="W306" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40845,7 +40666,7 @@
         <v>0</v>
       </c>
       <c r="V308" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40894,10 +40715,10 @@
         <v>0</v>
       </c>
       <c r="O310" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="W310" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40992,7 +40813,7 @@
         <v>0</v>
       </c>
       <c r="W314" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41064,7 +40885,7 @@
         <v>0</v>
       </c>
       <c r="O317" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41113,13 +40934,13 @@
         <v>0</v>
       </c>
       <c r="L319" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N319" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V319" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41171,13 +40992,13 @@
         <v>0</v>
       </c>
       <c r="N321" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="V321" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y321" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41318,10 +41139,10 @@
         <v>0</v>
       </c>
       <c r="T327" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y327" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41416,7 +41237,7 @@
         <v>0</v>
       </c>
       <c r="O331" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41442,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="Y332" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41465,7 +41286,7 @@
         <v>0</v>
       </c>
       <c r="N333" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41508,7 +41329,7 @@
         <v>0</v>
       </c>
       <c r="N335" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41906,7 +41727,7 @@
         <v>0</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41952,7 +41773,7 @@
         <v>1</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41975,13 +41796,13 @@
         <v>1</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q357" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y357" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42004,7 +41825,7 @@
         <v>1</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42270,7 +42091,7 @@
         <v>1</v>
       </c>
       <c r="Y371" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42293,7 +42114,7 @@
         <v>1</v>
       </c>
       <c r="W372" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42476,7 +42297,7 @@
         <v>1</v>
       </c>
       <c r="Y381" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42639,7 +42460,7 @@
         <v>1</v>
       </c>
       <c r="L389" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42662,7 +42483,7 @@
         <v>1</v>
       </c>
       <c r="O390" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42705,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="O392" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42728,7 +42549,7 @@
         <v>1</v>
       </c>
       <c r="L393" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42771,7 +42592,7 @@
         <v>1</v>
       </c>
       <c r="X395" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42814,7 +42635,7 @@
         <v>1</v>
       </c>
       <c r="O397" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42990,13 +42811,13 @@
         <v>1</v>
       </c>
       <c r="J407" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Y407" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43013,7 +42834,7 @@
         <v>1</v>
       </c>
       <c r="J408" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K408" s="0" t="n">
         <v>0</v>
@@ -43033,7 +42854,7 @@
         <v>1</v>
       </c>
       <c r="J409" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43116,7 +42937,7 @@
         <v>1</v>
       </c>
       <c r="X413" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43179,7 +43000,7 @@
         <v>1</v>
       </c>
       <c r="N416" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43222,7 +43043,7 @@
         <v>1</v>
       </c>
       <c r="W418" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43265,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="L420" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43342,10 +43163,10 @@
         <v>1</v>
       </c>
       <c r="N424" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="R424" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43430,7 +43251,7 @@
         <v>0</v>
       </c>
       <c r="H429" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I429" s="0" t="n">
         <v>1</v>
@@ -43447,7 +43268,7 @@
         <v>0</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I430" s="0" t="n">
         <v>1</v>
@@ -43456,7 +43277,7 @@
         <v>1</v>
       </c>
       <c r="V430" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43467,7 +43288,7 @@
         <v>0</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I431" s="0" t="n">
         <v>1</v>
@@ -43484,7 +43305,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I432" s="0" t="n">
         <v>1</v>
@@ -43501,7 +43322,7 @@
         <v>0</v>
       </c>
       <c r="H433" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I433" s="0" t="n">
         <v>1</v>
@@ -43510,7 +43331,7 @@
         <v>1</v>
       </c>
       <c r="O433" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43521,7 +43342,7 @@
         <v>0</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I434" s="0" t="n">
         <v>1</v>
@@ -43538,7 +43359,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I435" s="0" t="n">
         <v>1</v>
@@ -43555,7 +43376,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I436" s="0" t="n">
         <v>1</v>
@@ -43572,10 +43393,10 @@
         <v>0</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J437" s="0" t="n">
         <v>0</v>
@@ -43595,10 +43416,10 @@
         <v>0</v>
       </c>
       <c r="H438" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J438" s="0" t="n">
         <v>0</v>
@@ -43615,10 +43436,10 @@
         <v>0</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J439" s="0" t="n">
         <v>0</v>
@@ -43635,10 +43456,10 @@
         <v>0</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J440" s="0" t="n">
         <v>0</v>
@@ -43655,10 +43476,10 @@
         <v>0</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J441" s="0" t="n">
         <v>0</v>
@@ -43675,10 +43496,10 @@
         <v>0</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J442" s="0" t="n">
         <v>0</v>
@@ -43695,10 +43516,10 @@
         <v>0</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J443" s="0" t="n">
         <v>0</v>
@@ -43715,10 +43536,10 @@
         <v>0</v>
       </c>
       <c r="H444" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J444" s="0" t="n">
         <v>0</v>
@@ -43727,7 +43548,7 @@
         <v>0</v>
       </c>
       <c r="Y444" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43738,10 +43559,10 @@
         <v>0</v>
       </c>
       <c r="H445" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J445" s="0" t="n">
         <v>0</v>
@@ -43750,7 +43571,7 @@
         <v>0</v>
       </c>
       <c r="Q445" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43761,10 +43582,10 @@
         <v>0</v>
       </c>
       <c r="H446" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J446" s="0" t="n">
         <v>0</v>
@@ -43781,10 +43602,10 @@
         <v>0</v>
       </c>
       <c r="H447" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J447" s="0" t="n">
         <v>0</v>
@@ -43801,10 +43622,10 @@
         <v>0</v>
       </c>
       <c r="H448" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J448" s="0" t="n">
         <v>0</v>
@@ -43821,10 +43642,10 @@
         <v>0</v>
       </c>
       <c r="H449" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J449" s="0" t="n">
         <v>0</v>
@@ -43841,10 +43662,10 @@
         <v>0</v>
       </c>
       <c r="H450" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J450" s="0" t="n">
         <v>0</v>
@@ -43861,10 +43682,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J451" s="0" t="n">
         <v>0</v>
@@ -43873,7 +43694,7 @@
         <v>0</v>
       </c>
       <c r="Q451" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43884,10 +43705,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I452" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J452" s="0" t="n">
         <v>0</v>
@@ -43904,10 +43725,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J453" s="0" t="n">
         <v>0</v>
@@ -43924,10 +43745,10 @@
         <v>0</v>
       </c>
       <c r="H454" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J454" s="0" t="n">
         <v>0</v>
@@ -43944,10 +43765,10 @@
         <v>0</v>
       </c>
       <c r="H455" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J455" s="0" t="n">
         <v>0</v>
@@ -43964,10 +43785,10 @@
         <v>0</v>
       </c>
       <c r="H456" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J456" s="0" t="n">
         <v>0</v>
@@ -43984,10 +43805,10 @@
         <v>0</v>
       </c>
       <c r="H457" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J457" s="0" t="n">
         <v>0</v>
@@ -43996,7 +43817,7 @@
         <v>0</v>
       </c>
       <c r="W457" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44007,10 +43828,10 @@
         <v>0</v>
       </c>
       <c r="H458" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J458" s="0" t="n">
         <v>0</v>
@@ -44019,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="V458" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44030,10 +43851,10 @@
         <v>0</v>
       </c>
       <c r="H459" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J459" s="0" t="n">
         <v>0</v>
@@ -44050,10 +43871,10 @@
         <v>0</v>
       </c>
       <c r="H460" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J460" s="0" t="n">
         <v>0</v>
@@ -44070,10 +43891,10 @@
         <v>0</v>
       </c>
       <c r="H461" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J461" s="0" t="n">
         <v>0</v>
@@ -44090,10 +43911,10 @@
         <v>0</v>
       </c>
       <c r="H462" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J462" s="0" t="n">
         <v>0</v>
@@ -44102,7 +43923,7 @@
         <v>0</v>
       </c>
       <c r="L462" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44113,10 +43934,10 @@
         <v>0</v>
       </c>
       <c r="H463" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J463" s="0" t="n">
         <v>0</v>
@@ -44133,10 +43954,10 @@
         <v>0</v>
       </c>
       <c r="H464" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J464" s="0" t="n">
         <v>0</v>
@@ -44153,10 +43974,10 @@
         <v>0</v>
       </c>
       <c r="H465" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J465" s="0" t="n">
         <v>0</v>
@@ -44173,10 +43994,10 @@
         <v>0</v>
       </c>
       <c r="H466" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J466" s="0" t="n">
         <v>0</v>
@@ -44193,10 +44014,10 @@
         <v>0</v>
       </c>
       <c r="H467" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J467" s="0" t="n">
         <v>0</v>
@@ -44213,16 +44034,16 @@
         <v>0</v>
       </c>
       <c r="H468" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J468" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K468" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44233,25 +44054,25 @@
         <v>0</v>
       </c>
       <c r="H469" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
       <c r="J469" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K469" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N469" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q469" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="S469" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44268,7 +44089,7 @@
         <v>0</v>
       </c>
       <c r="V470" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/example_hrd.xlsx
+++ b/example_hrd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1088">
   <si>
     <t xml:space="preserve">E-Nummer</t>
   </si>
@@ -3276,6 +3276,12 @@
   </si>
   <si>
     <t xml:space="preserve">nur partielle Analyse:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/test/one/data/one.svs;/test/two/data/two.svs;/home/simon/philipp/pat_62/BRACS_1602/data/BRACS_1602.svs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/test/one/data/one.svs;/home/simon/philipp/pat_62/BRACS_1598/data/BRACS_1598.svs;/test/three/data/three.svs</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -3558,7 +3564,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="1" sqref="AC49 J1"/>
+      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32680,8 +32686,8 @@
   </sheetPr>
   <dimension ref="A1:AE481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC49" activeCellId="0" sqref="AC49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33122,7 +33128,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -33980,7 +33986,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -43251,7 +43257,7 @@
         <v>0</v>
       </c>
       <c r="H429" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I429" s="0" t="n">
         <v>1</v>
@@ -43268,7 +43274,7 @@
         <v>0</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I430" s="0" t="n">
         <v>1</v>
@@ -43288,7 +43294,7 @@
         <v>0</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I431" s="0" t="n">
         <v>1</v>
@@ -43305,7 +43311,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I432" s="0" t="n">
         <v>1</v>
@@ -43322,7 +43328,7 @@
         <v>0</v>
       </c>
       <c r="H433" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I433" s="0" t="n">
         <v>1</v>
@@ -43342,7 +43348,7 @@
         <v>0</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I434" s="0" t="n">
         <v>1</v>
@@ -43359,7 +43365,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I435" s="0" t="n">
         <v>1</v>
@@ -43376,7 +43382,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I436" s="0" t="n">
         <v>1</v>
@@ -43393,10 +43399,10 @@
         <v>0</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J437" s="0" t="n">
         <v>0</v>
@@ -43416,10 +43422,10 @@
         <v>0</v>
       </c>
       <c r="H438" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J438" s="0" t="n">
         <v>0</v>
@@ -43436,10 +43442,10 @@
         <v>0</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J439" s="0" t="n">
         <v>0</v>
@@ -43456,10 +43462,10 @@
         <v>0</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J440" s="0" t="n">
         <v>0</v>
@@ -43476,10 +43482,10 @@
         <v>0</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J441" s="0" t="n">
         <v>0</v>
@@ -43496,10 +43502,10 @@
         <v>0</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J442" s="0" t="n">
         <v>0</v>
@@ -43516,10 +43522,10 @@
         <v>0</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J443" s="0" t="n">
         <v>0</v>
@@ -43536,10 +43542,10 @@
         <v>0</v>
       </c>
       <c r="H444" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J444" s="0" t="n">
         <v>0</v>
@@ -43559,10 +43565,10 @@
         <v>0</v>
       </c>
       <c r="H445" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J445" s="0" t="n">
         <v>0</v>
@@ -43582,10 +43588,10 @@
         <v>0</v>
       </c>
       <c r="H446" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J446" s="0" t="n">
         <v>0</v>
@@ -43602,10 +43608,10 @@
         <v>0</v>
       </c>
       <c r="H447" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J447" s="0" t="n">
         <v>0</v>
@@ -43622,10 +43628,10 @@
         <v>0</v>
       </c>
       <c r="H448" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J448" s="0" t="n">
         <v>0</v>
@@ -43642,10 +43648,10 @@
         <v>0</v>
       </c>
       <c r="H449" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J449" s="0" t="n">
         <v>0</v>
@@ -43662,10 +43668,10 @@
         <v>0</v>
       </c>
       <c r="H450" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J450" s="0" t="n">
         <v>0</v>
@@ -43682,10 +43688,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J451" s="0" t="n">
         <v>0</v>
@@ -43705,10 +43711,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I452" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J452" s="0" t="n">
         <v>0</v>
@@ -43725,10 +43731,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J453" s="0" t="n">
         <v>0</v>
@@ -43745,10 +43751,10 @@
         <v>0</v>
       </c>
       <c r="H454" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J454" s="0" t="n">
         <v>0</v>
@@ -43765,10 +43771,10 @@
         <v>0</v>
       </c>
       <c r="H455" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J455" s="0" t="n">
         <v>0</v>
@@ -43785,10 +43791,10 @@
         <v>0</v>
       </c>
       <c r="H456" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J456" s="0" t="n">
         <v>0</v>
@@ -43805,10 +43811,10 @@
         <v>0</v>
       </c>
       <c r="H457" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J457" s="0" t="n">
         <v>0</v>
@@ -43828,10 +43834,10 @@
         <v>0</v>
       </c>
       <c r="H458" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J458" s="0" t="n">
         <v>0</v>
@@ -43851,10 +43857,10 @@
         <v>0</v>
       </c>
       <c r="H459" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J459" s="0" t="n">
         <v>0</v>
@@ -43871,10 +43877,10 @@
         <v>0</v>
       </c>
       <c r="H460" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J460" s="0" t="n">
         <v>0</v>
@@ -43891,10 +43897,10 @@
         <v>0</v>
       </c>
       <c r="H461" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J461" s="0" t="n">
         <v>0</v>
@@ -43911,10 +43917,10 @@
         <v>0</v>
       </c>
       <c r="H462" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J462" s="0" t="n">
         <v>0</v>
@@ -43934,10 +43940,10 @@
         <v>0</v>
       </c>
       <c r="H463" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J463" s="0" t="n">
         <v>0</v>
@@ -43954,10 +43960,10 @@
         <v>0</v>
       </c>
       <c r="H464" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J464" s="0" t="n">
         <v>0</v>
@@ -43974,10 +43980,10 @@
         <v>0</v>
       </c>
       <c r="H465" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J465" s="0" t="n">
         <v>0</v>
@@ -43994,10 +44000,10 @@
         <v>0</v>
       </c>
       <c r="H466" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J466" s="0" t="n">
         <v>0</v>
@@ -44014,10 +44020,10 @@
         <v>0</v>
       </c>
       <c r="H467" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J467" s="0" t="n">
         <v>0</v>
@@ -44034,10 +44040,10 @@
         <v>0</v>
       </c>
       <c r="H468" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J468" s="0" t="n">
         <v>0</v>
@@ -44054,10 +44060,10 @@
         <v>0</v>
       </c>
       <c r="H469" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="J469" s="0" t="n">
         <v>0</v>

--- a/example_hrd.xlsx
+++ b/example_hrd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1089">
   <si>
     <t xml:space="preserve">E-Nummer</t>
   </si>
@@ -3282,6 +3282,9 @@
   </si>
   <si>
     <t xml:space="preserve">/test/one/data/one.svs;/home/simon/philipp/pat_62/BRACS_1598/data/BRACS_1598.svs;/test/three/data/three.svs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/test/one/data/one.svs;/test/two/data/two.svs;/home/simon/philipp/pat_62/BRACS_1601/data/BRACS_1601.svs</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -32686,8 +32689,8 @@
   </sheetPr>
   <dimension ref="A1:AE481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34011,8 +34014,8 @@
         <v>1</v>
       </c>
       <c r="AC35" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34508,7 +34511,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
@@ -34529,12 +34532,12 @@
         <v>0</v>
       </c>
       <c r="AB50" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="AC50" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43257,7 +43260,7 @@
         <v>0</v>
       </c>
       <c r="H429" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I429" s="0" t="n">
         <v>1</v>
@@ -43274,7 +43277,7 @@
         <v>0</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I430" s="0" t="n">
         <v>1</v>
@@ -43294,7 +43297,7 @@
         <v>0</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I431" s="0" t="n">
         <v>1</v>
@@ -43311,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I432" s="0" t="n">
         <v>1</v>
@@ -43328,7 +43331,7 @@
         <v>0</v>
       </c>
       <c r="H433" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I433" s="0" t="n">
         <v>1</v>
@@ -43348,7 +43351,7 @@
         <v>0</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I434" s="0" t="n">
         <v>1</v>
@@ -43365,7 +43368,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I435" s="0" t="n">
         <v>1</v>
@@ -43382,7 +43385,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I436" s="0" t="n">
         <v>1</v>
@@ -43399,10 +43402,10 @@
         <v>0</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J437" s="0" t="n">
         <v>0</v>
@@ -43422,10 +43425,10 @@
         <v>0</v>
       </c>
       <c r="H438" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J438" s="0" t="n">
         <v>0</v>
@@ -43442,10 +43445,10 @@
         <v>0</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J439" s="0" t="n">
         <v>0</v>
@@ -43462,10 +43465,10 @@
         <v>0</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J440" s="0" t="n">
         <v>0</v>
@@ -43482,10 +43485,10 @@
         <v>0</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J441" s="0" t="n">
         <v>0</v>
@@ -43502,10 +43505,10 @@
         <v>0</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J442" s="0" t="n">
         <v>0</v>
@@ -43522,10 +43525,10 @@
         <v>0</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J443" s="0" t="n">
         <v>0</v>
@@ -43542,10 +43545,10 @@
         <v>0</v>
       </c>
       <c r="H444" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J444" s="0" t="n">
         <v>0</v>
@@ -43565,10 +43568,10 @@
         <v>0</v>
       </c>
       <c r="H445" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J445" s="0" t="n">
         <v>0</v>
@@ -43588,10 +43591,10 @@
         <v>0</v>
       </c>
       <c r="H446" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J446" s="0" t="n">
         <v>0</v>
@@ -43608,10 +43611,10 @@
         <v>0</v>
       </c>
       <c r="H447" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J447" s="0" t="n">
         <v>0</v>
@@ -43628,10 +43631,10 @@
         <v>0</v>
       </c>
       <c r="H448" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J448" s="0" t="n">
         <v>0</v>
@@ -43648,10 +43651,10 @@
         <v>0</v>
       </c>
       <c r="H449" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J449" s="0" t="n">
         <v>0</v>
@@ -43668,10 +43671,10 @@
         <v>0</v>
       </c>
       <c r="H450" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J450" s="0" t="n">
         <v>0</v>
@@ -43688,10 +43691,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J451" s="0" t="n">
         <v>0</v>
@@ -43711,10 +43714,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I452" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J452" s="0" t="n">
         <v>0</v>
@@ -43731,10 +43734,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J453" s="0" t="n">
         <v>0</v>
@@ -43751,10 +43754,10 @@
         <v>0</v>
       </c>
       <c r="H454" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J454" s="0" t="n">
         <v>0</v>
@@ -43771,10 +43774,10 @@
         <v>0</v>
       </c>
       <c r="H455" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J455" s="0" t="n">
         <v>0</v>
@@ -43791,10 +43794,10 @@
         <v>0</v>
       </c>
       <c r="H456" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J456" s="0" t="n">
         <v>0</v>
@@ -43811,10 +43814,10 @@
         <v>0</v>
       </c>
       <c r="H457" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J457" s="0" t="n">
         <v>0</v>
@@ -43834,10 +43837,10 @@
         <v>0</v>
       </c>
       <c r="H458" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J458" s="0" t="n">
         <v>0</v>
@@ -43857,10 +43860,10 @@
         <v>0</v>
       </c>
       <c r="H459" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J459" s="0" t="n">
         <v>0</v>
@@ -43877,10 +43880,10 @@
         <v>0</v>
       </c>
       <c r="H460" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J460" s="0" t="n">
         <v>0</v>
@@ -43897,10 +43900,10 @@
         <v>0</v>
       </c>
       <c r="H461" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J461" s="0" t="n">
         <v>0</v>
@@ -43917,10 +43920,10 @@
         <v>0</v>
       </c>
       <c r="H462" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J462" s="0" t="n">
         <v>0</v>
@@ -43940,10 +43943,10 @@
         <v>0</v>
       </c>
       <c r="H463" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J463" s="0" t="n">
         <v>0</v>
@@ -43960,10 +43963,10 @@
         <v>0</v>
       </c>
       <c r="H464" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J464" s="0" t="n">
         <v>0</v>
@@ -43980,10 +43983,10 @@
         <v>0</v>
       </c>
       <c r="H465" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J465" s="0" t="n">
         <v>0</v>
@@ -44000,10 +44003,10 @@
         <v>0</v>
       </c>
       <c r="H466" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J466" s="0" t="n">
         <v>0</v>
@@ -44020,10 +44023,10 @@
         <v>0</v>
       </c>
       <c r="H467" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J467" s="0" t="n">
         <v>0</v>
@@ -44040,10 +44043,10 @@
         <v>0</v>
       </c>
       <c r="H468" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J468" s="0" t="n">
         <v>0</v>
@@ -44060,10 +44063,10 @@
         <v>0</v>
       </c>
       <c r="H469" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J469" s="0" t="n">
         <v>0</v>
